--- a/biology/Botanique/Lygocoris_pabulinus/Lygocoris_pabulinus.xlsx
+++ b/biology/Botanique/Lygocoris_pabulinus/Lygocoris_pabulinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lygocoris pabulinus, la punaise verte des pousses, est une espèce d'insectes de l'ordre des hémiptères, de la famille des Miridae (capsides).
 C'est un insecte ravageur qui attaque le feuillage de nombreuses espèces végétales, dont les arbres fruitiers et diverses plantes maraîchères : pomme de terre, tomate, haricot, des plantes ornementales : dahlias, chrysanthèmes, rosiers, ainsi que la luzerne et le houblon.
